--- a/Dataset/Folds/Fold_3/Excel/11.xlsx
+++ b/Dataset/Folds/Fold_3/Excel/11.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7884" uniqueCount="1180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8844" uniqueCount="1311">
   <si>
     <t>Doi</t>
   </si>
@@ -4018,6 +4018,524 @@
   </si>
   <si>
     <t>[Brian%Hanley%NULL%1,                          Kikkeri N%Naresh%NULL%1,                          Candice%Roufosse%NULL%1,                          Andrew G%Nicholson%NULL%1,                          Justin%Weir%NULL%1,                          Graham S%Cooke%NULL%1,                          Mark%Thursz%NULL%1,                          Pinelopi%Manousou%NULL%1,                          Richard%Corbett%NULL%1,                          Robert%Goldin%NULL%1,                          Safa%Al-Sarraj%NULL%1,                          Alireza%Abdolrasouli%NULL%1,                          Olivia C%Swann%NULL%1,                          Laury%Baillon%NULL%1,                          Rebecca%Penn%NULL%1,                          Wendy S%Barclay%NULL%1,                          Patrizia%Viola%NULL%1,                          Michael%Osborn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Amaro N%Duarte‐Neto%NULL%1,                           Renata A A%Monteiro%NULL%2,                           Renata A A%Monteiro%NULL%0,                           Luiz F F%da Silva%NULL%1,                           Denise M A C%Malheiros%NULL%1,                           Ellen P%de Oliveira%NULL%1,                           Jair%Theodoro‐Filho%NULL%1,                           João R R%Pinho%NULL%1,                           Michele S%Gomes‐Gouvêa%NULL%1,                           Ana P M%Salles%NULL%1,                           Ilka R S%de Oliveira%NULL%1,                           Thais%Mauad%NULL%1,                           Paulo H N%Saldiva%NULL%1,                           Marisa%Dolhnikoff%maridol@usp.br%1]</t>
+  </si>
+  <si>
+    <t>[Louis Maximilian%Buja%l.maximilian.buja@uth.tmc.edu%1,                           Dwayne A.%Wolf%NULL%1,                           Bihong%Zhao%NULL%1,                           Bindu%Akkanti%NULL%1,                           Michelle%McDonald%NULL%1,                           Laura%Lelenwa%NULL%1,                           Noah%Reilly%NULL%1,                           Giulia%Ottaviani%NULL%1,                           M. Tarek%Elghetany%NULL%1,                           Daniel Ocazionez%Trujillo%NULL%1,                           Gabriel M.%Aisenberg%NULL%1,                           Mohammad%Madjid%NULL%1,                           Biswajit%Kar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[J. Matthew%Lacy%NULL%1,                           Erin G.%Brooks%NULL%1,                           Joshua%Akers%NULL%1,                           Danielle%Armstrong%NULL%1,                           Lauren%Decker%NULL%1,                           Adam%Gonzalez%NULL%1,                           William%Humphrey%NULL%1,                           Romana%Mayer%NULL%1,                           Matthew%Miller%NULL%1,                           Catherine%Perez%NULL%1,                           Jose Antonio Ruiz%Arango%NULL%1,                           Lakshmanan%Sathyavagiswaran%NULL%1,                           Wendy%Stroh%NULL%1,                           Suzanne%Utley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dominic%Wichmann%NULL%1,                           Jan-Peter%Sperhake%NULL%2,                           Marc%Lütgehetmann%NULL%2,                           Stefan%Steurer%NULL%2,                           Carolin%Edler%NULL%1,                           Axel%Heinemann%NULL%2,                           Fabian%Heinrich%NULL%2,                           Herbert%Mushumba%NULL%2,                           Inga%Kniep%NULL%1,                           Ann Sophie%Schröder%NULL%2,                           Christoph%Burdelski%NULL%2,                           Geraldine%de Heer%NULL%2,                           Axel%Nierhaus%NULL%2,                           Daniel%Frings%NULL%2,                           Susanne%Pfefferle%NULL%1,                           Heinrich%Becker%NULL%1,                           Hanns%Bredereke-Wiedling%NULL%1,                           Andreas%de Weerth%NULL%2,                           Hans-Richard%Paschen%NULL%1,                           Sara%Sheikhzadeh-Eggers%NULL%1,                           Axel%Stang%NULL%1,                           Stefan%Schmiedel%NULL%1,                           Carsten%Bokemeyer%NULL%1,                           Marylyn M.%Addo%NULL%1,                           Martin%Aepfelbacher%NULL%2,                           Klaus%Püschel%NULL%2,                           Stefan%Kluge%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%2,                           Jasmin D%Haslbauer%NULL%4,                           Jasmin D%Haslbauer%NULL%0,                           Ronny%Nienhold%NULL%2,                           Spasenija%Savic%NULL%2,                           Helmut%Hopfer%NULL%2,                           Nikolaus%Deigendesch%NULL%2,                           Stephan%Frank%NULL%2,                           Daniel%Turek%NULL%2,                           Niels%Willi%NULL%2,                           Hans%Pargger%NULL%2,                           Stefano%Bassetti%NULL%2,                           Joerg D%Leuppi%NULL%2,                           Gieri%Cathomas%NULL%2,                           Markus%Tolnay%NULL%2,                           Kirsten D%Mertz%NULL%2,                           Alexandar%Tzankov%alexandar.tzankov@usb.ch%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%0,                           Jasmin D%Haslbauer%NULL%0,                           Jasmin D%Haslbauer%NULL%0,                           Ronny%Nienhold%NULL%0,                           Spasenija%Savic%NULL%0,                           Helmut%Hopfer%NULL%0,                           Nikolaus%Deigendesch%NULL%0,                           Stephan%Frank%NULL%0,                           Daniel%Turek%NULL%0,                           Niels%Willi%NULL%0,                           Hans%Pargger%NULL%0,                           Stefano%Bassetti%NULL%0,                           Joerg D%Leuppi%NULL%0,                           Gieri%Cathomas%NULL%0,                           Markus%Tolnay%NULL%0,                           Kirsten D%Mertz%NULL%0,                           Alexandar%Tzankov%alexandar.tzankov@usb.ch%0]</t>
+  </si>
+  <si>
+    <t>[Zsuzsanna%Varga%NULL%1,                           Andreas J%Flammer%NULL%1,                           Peter%Steiger%NULL%1,                           Martina%Haberecker%NULL%1,                           Rea%Andermatt%NULL%1,                           Annelies S%Zinkernagel%NULL%1,                           Mandeep R%Mehra%NULL%1,                           Reto A%Schuepbach%NULL%1,                           Frank%Ruschitzka%frank.ruschitzka@usz.ch%1,                           Holger%Moch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sufang%Tian%NULL%1,                           Yong%Xiong%NULL%0,                           Huan%Liu%NULL%3,                           Li%Niu%NULL%1,                           Jianchun%Guo%NULL%1,                           Meiyan%Liao%NULL%1,                           Shu-Yuan%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lisa M%Barton%NULL%1,                           Eric J%Duval%NULL%1,                           Edana%Stroberg%NULL%1,                           Subha%Ghosh%NULL%1,                           Sanjay%Mukhopadhyay%mukhops@ccf.org%1]</t>
+  </si>
+  <si>
+    <t>[Pedro%Navarro Conde%navarro_ped@gva.es%1,                           Pilar%Alemany Monraval%NULL%1,                           Carmen%Medina Medina%NULL%1,                           Ana%Jiménez Sánchez%NULL%1,                           Juan Carlos%Andrés Teruel%NULL%1,                           José%Ferrando Marco%NULL%1,                           Víctor%Puglia Santos%NULL%1,                           Empar%Mayordomo Aranda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolin%Edler%NULL%1,                           Ann Sophie%Schröder%NULL%0,                           Martin%Aepfelbacher%NULL%0,                           Antonia%Fitzek%NULL%1,                           Axel%Heinemann%NULL%0,                           Fabian%Heinrich%NULL%0,                           Anke%Klein%NULL%1,                           Felicia%Langenwalder%NULL%1,                           Marc%Lütgehetmann%NULL%0,                           Kira%Meißner%NULL%1,                           Klaus%Püschel%NULL%0,                           Julia%Schädler%NULL%1,                           Stefan%Steurer%NULL%0,                           Herbert%Mushumba%NULL%0,                           Jan-Peter%Sperhake%sperhake@uke.de%0]</t>
+  </si>
+  <si>
+    <t>[Miroslav%Sekulic%NULL%1,                           Holly%Harper%NULL%1,                           Behtash G%Nezami%NULL%1,                           Daniel L%Shen%NULL%1,                           Simona Pichler%Sekulic%NULL%1,                           Aaron T%Koeth%NULL%1,                           Clifford V%Harding%NULL%1,                           Hannah%Gilmore%NULL%1,                           Navid%Sadri%navid.sadri@uhhospitals.org%1]</t>
+  </si>
+  <si>
+    <t>[Christine%Suess%NULL%1,                           Roland%Hausmann%roland.hausmann@kssg.ch%1]</t>
+  </si>
+  <si>
+    <t>[Diego%Aguiar%diego.aguiar@hcuge.ch%1,                           Johannes Alexander%Lobrinus%NULL%2,                           Johannes Alexander%Lobrinus%NULL%0,                           Manuel%Schibler%NULL%1,                           Tony%Fracasso%NULL%1,                           Christelle%Lardi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sharon E%Fox%NULL%1,                           Aibek%Akmatbekov%NULL%1,                           Jack L%Harbert%NULL%1,                           Guang%Li%NULL%1,                           J%Quincy Brown%NULL%1,                           Richard S%Vander Heide%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mohammad Taghi%Beigmohammadi%NULL%1,                           Behnaz%Jahanbin%NULL%1,                           Masoomeh%Safaei%NULL%1,                           Laya%Amoozadeh%NULL%1,                           Meysam%Khoshavi%NULL%1,                           Vahid%Mehrtash%NULL%1,                           Bita%Jafarzadeh%NULL%1,                           Alireza%Abdollahi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaofu%Wang%wangchaofu@126.com%1,                           Jing%Xie%NULL%2,                           Lei%Zhao%NULL%1,                           Xiaochun%Fei%NULL%1,                           Heng%Zhang%NULL%1,                           Yun%Tan%NULL%1,                           Xiu%Nie%NULL%1,                           Luting%Zhou%NULL%1,                           Zhenhua%Liu%NULL%1,                           Yong%Ren%NULL%1,                           Ling%Yuan%NULL%1,                           Yu%Zhang%NULL%1,                           Jinsheng%Zhang%NULL%1,                           Liwei%Liang%NULL%1,                           Xinwei%Chen%NULL%1,                           Xin%Liu%NULL%1,                           Peng%Wang%NULL%1,                           Xiao%Han%NULL%1,                           Xiangqin%Weng%NULL%1,                           Ying%Chen%NULL%1,                           Ting%Yu%NULL%0,                           Xinxin%Zhang%NULL%0,                           Jun%Cai%caijun@shsmu.edu.cn%1,                           Rong%Chen%crjudy@126.com%2,                           Zhengli%Shi%zlshi@wh.iov.cn%2,                           Xiuwu%Bian%bianxiuwu@263.net%1]</t>
+  </si>
+  <si>
+    <t>[Hans%Bösmüller%hans.boesmueller@med.uni-tuebingen.de%1,                           Selina%Traxler%NULL%2,                           Selina%Traxler%NULL%0,                           Michael%Bitzer%NULL%1,                           Helene%Häberle%NULL%1,                           Wolfgang%Raiser%NULL%1,                           Dominik%Nann%NULL%1,                           Leonie%Frauenfeld%NULL%1,                           Antonio%Vogelsberg%NULL%1,                           Karin%Klingel%NULL%1,                           Falko%Fend%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wolf%Schweitzer%wolf.schweitzer@irm.uzh.ch%1,                           Thomas%Ruder%NULL%1,                           Rilana%Baumeister%NULL%1,                           Stephan%Bolliger%NULL%1,                           Michael%Thali%NULL%1,                           Eva%Meixner%NULL%1,                           Garyfalia%Ampanozi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhe%Xu%NULL%1,                           Lei%Shi%NULL%1,                           Yijin%Wang%NULL%1,                           Jiyuan%Zhang%NULL%1,                           Lei%Huang%NULL%2,                           Chao%Zhang%NULL%1,                           Shuhong%Liu%NULL%1,                           Peng%Zhao%NULL%1,                           Hongxia%Liu%NULL%1,                           Li%Zhu%NULL%1,                           Yanhong%Tai%NULL%1,                           Changqing%Bai%NULL%1,                           Tingting%Gao%NULL%1,                           Jinwen%Song%NULL%1,                           Peng%Xia%NULL%1,                           Jinghui%Dong%NULL%1,                           Jingmin%Zhao%NULL%1,                           Fu-Sheng%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mathilde%Ducloyer%Mathilde.ducloyer@chu-nantes.fr%1,                           Benjamin%Gaborit%NULL%2,                           Benjamin%Gaborit%NULL%0,                           Claire%Toquet%NULL%1,                           Louise%Castain%NULL%1,                           Antonin%Bal%NULL%1,                           Pierre Paul%Arrigoni%NULL%1,                           Raphaël%Lecomte%NULL%1,                           Renaud%Clement%NULL%1,                           Christine%Sagan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andreea-Elena%Cîrstea%NULL%1,                           Radu Lucian%Buzulică%NULL%1,                           Daniel%Pirici%NULL%1,                           Mihail Constantin%Ceauşu%NULL%1,                           Radu Vasile%Iman%NULL%1,                           Ovidiu-Mircea%Gheorghe%NULL%1,                           Simona Daniela%Neamţu%NULL%1,                           Liliana%Stanca%NULL%1,                           Răzvan%Ene%NULL%1,                           Samir%Kumar-Singh%NULL%1,                           Laurenţiu%Mogoantă%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leo%Nicolai%NULL%1,                           Alexander%Leunig%NULL%1,                           Sophia%Brambs%NULL%1,                           Rainer%Kaiser%NULL%1,                           Tobias%Weinberger%NULL%1,                           Michael%Weigand%NULL%1,                           Maximilian%Muenchhoff%NULL%1,                           Johannes C.%Hellmuth%NULL%1,                           Stephan%Ledderose%NULL%1,                           Heiko%Schulz%NULL%1,                           Clemens%Scherer%NULL%1,                           Martina%Rudelius%NULL%1,                           Michael%Zoller%NULL%1,                           Dominik%Höchter%NULL%1,                           Oliver%Keppler%NULL%1,                           Daniel%Teupser%NULL%1,                           Bernhard%Zwißler%NULL%1,                           Michael%von Bergwelt-Baildon%NULL%1,                           Stefan%Kääb%NULL%1,                           Steffen%Massberg%NULL%1,                           Kami%Pekayvaz%NULL%1,                           Konstantin%Stark%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Claudia%Grosse%NULL%1,                           Alexandra%Grosse%NULL%1,                           Helmut J.F.%Salzer%NULL%1,                           Martin W.%Dünser%NULL%1,                           Reinhard%Motz%NULL%1,                           Rupert%Langer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Myriam%Remmelink%NULL%1,                           Ricardo%De Mendonça%NULL%1,                           Nicky%D’Haene%NULL%1,                           Sarah%De Clercq%NULL%1,                           Camille%Verocq%NULL%1,                           Laetitia%Lebrun%NULL%1,                           Philomène%Lavis%NULL%1,                           Marie-Lucie%Racu%NULL%1,                           Anne-Laure%Trépant%NULL%1,                           Calliope%Maris%NULL%1,                           Sandrine%Rorive%NULL%1,                           Jean-Christophe%Goffard%NULL%1,                           Olivier%De Witte%NULL%1,                           Lorenzo%Peluso%NULL%1,                           Jean-Louis%Vincent%NULL%1,                           Christine%Decaestecker%NULL%1,                           Fabio Silvio%Taccone%NULL%1,                           Isabelle%Salmon%Isabelle.Salmon@erasme.ulb.ac.be%1]</t>
+  </si>
+  <si>
+    <t>[Koji%Okudela%kojixok@yokohama.cu.ac.jp%1,                           Hiroyuki%Hayashi%NULL%2,                           Hiroyuki%Hayashi%NULL%0,                           Yukihiro%Yoshimura%NULL%1,                           Hiroaki%Sasaki%NULL%1,                           Hiroshi%Horiuchi%NULL%1,                           Nobuyuki%Miyata%NULL%1,                           Natsuo%Tachikawa%NULL%1,                           Yuki%Tsuchiya%NULL%1,                           Hideaki%Mitsui%NULL%1,                           Kenichi%Ohashi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Takuya%Adachi%NULL%1,                           Ja-Mun%Chong%NULL%1,                           Noriko%Nakajima%NULL%1,                           Masahiro%Sano%NULL%1,                           Jun%Yamazaki%NULL%1,                           Ippei%Miyamoto%NULL%1,                           Haruka%Nishioka%NULL%1,                           Hidetaka%Akita%NULL%1,                           Yuko%Sato%NULL%1,                           Michiyo%Kataoka%NULL%1,                           Harutaka%Katano%NULL%1,                           Minoru%Tobiume%NULL%1,                           Tsuyoshi%Sekizuka%NULL%1,                           Kentaro%Itokawa%NULL%1,                           Makoto%Kuroda%NULL%1,                           Tadaki%Suzuki%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Girish N.%Nadkarni%NULL%1,                           Anuradha%Lala%NULL%1,                           Emilia%Bagiella%NULL%1,                           Helena L.%Chang%NULL%1,                           Pedro R.%Moreno%NULL%1,                           Elisabet%Pujadas%NULL%1,                           Varun%Arvind%NULL%1,                           Sonali%Bose%NULL%1,                           Alexander W.%Charney%NULL%1,                           Martin D.%Chen%NULL%1,                           Carlos%Cordon-Cardo%NULL%1,                           Andrew S.%Dunn%NULL%1,                           Michael E.%Farkouh%NULL%1,                           Benjamin S.%Glicksberg%NULL%1,                           Arash%Kia%NULL%1,                           Roopa%Kohli-Seth%NULL%1,                           Matthew A.%Levin%NULL%1,                           Prem%Timsina%NULL%1,                           Shan%Zhao%NULL%1,                           Zahi A.%Fayad%NULL%5,                           Valentin%Fuster%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Osama%Al-Dalahmah%oa2298@cumc.columbia.edu%1,                           Kiran T.%Thakur%NULL%2,                           Kiran T.%Thakur%NULL%0,                           Anna S.%Nordvig%NULL%1,                           Morgan L.%Prust%NULL%1,                           William%Roth%NULL%1,                           Angela%Lignelli%NULL%1,                           Anne-Catrin%Uhlemann%NULL%1,                           Emily Happy%Miller%NULL%1,                           Shajo%Kunnath-Velayudhan%NULL%1,                           Armando%Del Portillo%NULL%1,                           Yang%Liu%NULL%1,                           Gunnar%Hargus%NULL%1,                           Andrew F.%Teich%NULL%1,                           Richard A.%Hickman%NULL%1,                           Kurenai%Tanji%NULL%1,                           James E.%Goldman%NULL%1,                           Phyllis L.%Faust%NULL%1,                           Peter%Canoll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[George-Călin%Oprinca%george_oprinca@yahoo.com%1,                           Lilioara-Alexandra%Muja%NULL%2,                           Lilioara-Alexandra%Muja%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xin-xin%Wang%NULL%1,                           Chen%Shao%NULL%2,                           Chen%Shao%NULL%0,                           Xiao-jie%Huang%NULL%1,                           Lin%Sun%NULL%1,                           Ling-jia%Meng%NULL%1,                           Hui%Liu%NULL%2,                           Shi-jie%Zhang%NULL%1,                           Hong-jun%Li%NULL%1,                           Fu-dong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sarah S.%Elsoukkary%NULL%1,                           Maria%Mostyka%NULL%1,                           Alicia%Dillard%NULL%1,                           Diana R.%Berman%NULL%1,                           Lucy X.%Ma%NULL%1,                           Amy%Chadburn%NULL%1,                           Rhonda K.%Yantiss%NULL%1,                           Jose%Jessurun%NULL%1,                           Surya V.%Seshan%NULL%1,                           Alain C.%Borczuk%NULL%1,                           Steven P.%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian%Hanley%NULL%1,                           Kikkeri N%Naresh%NULL%1,                           Candice%Roufosse%NULL%1,                           Andrew G%Nicholson%NULL%1,                           Justin%Weir%NULL%1,                           Graham S%Cooke%NULL%1,                           Mark%Thursz%NULL%1,                           Pinelopi%Manousou%NULL%1,                           Richard%Corbett%NULL%1,                           Robert%Goldin%NULL%1,                           Safa%Al-Sarraj%NULL%1,                           Alireza%Abdolrasouli%NULL%1,                           Olivia C%Swann%NULL%1,                           Laury%Baillon%NULL%1,                           Rebecca%Penn%NULL%1,                           Wendy S%Barclay%NULL%1,                           Patrizia%Viola%NULL%1,                           Michael%Osborn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Amaro N%Duarte‐Neto%NULL%1,                            Renata A A%Monteiro%NULL%2,                            Renata A A%Monteiro%NULL%0,                            Luiz F F%da Silva%NULL%1,                            Denise M A C%Malheiros%NULL%1,                            Ellen P%de Oliveira%NULL%1,                            Jair%Theodoro‐Filho%NULL%1,                            João R R%Pinho%NULL%1,                            Michele S%Gomes‐Gouvêa%NULL%1,                            Ana P M%Salles%NULL%1,                            Ilka R S%de Oliveira%NULL%1,                            Thais%Mauad%NULL%1,                            Paulo H N%Saldiva%NULL%1,                            Marisa%Dolhnikoff%maridol@usp.br%1]</t>
+  </si>
+  <si>
+    <t>[Louis Maximilian%Buja%l.maximilian.buja@uth.tmc.edu%1,                            Dwayne A.%Wolf%NULL%1,                            Bihong%Zhao%NULL%1,                            Bindu%Akkanti%NULL%1,                            Michelle%McDonald%NULL%1,                            Laura%Lelenwa%NULL%1,                            Noah%Reilly%NULL%1,                            Giulia%Ottaviani%NULL%1,                            M. Tarek%Elghetany%NULL%1,                            Daniel Ocazionez%Trujillo%NULL%1,                            Gabriel M.%Aisenberg%NULL%1,                            Mohammad%Madjid%NULL%1,                            Biswajit%Kar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[J. Matthew%Lacy%NULL%1,                            Erin G.%Brooks%NULL%1,                            Joshua%Akers%NULL%1,                            Danielle%Armstrong%NULL%1,                            Lauren%Decker%NULL%1,                            Adam%Gonzalez%NULL%1,                            William%Humphrey%NULL%1,                            Romana%Mayer%NULL%1,                            Matthew%Miller%NULL%1,                            Catherine%Perez%NULL%1,                            Jose Antonio Ruiz%Arango%NULL%1,                            Lakshmanan%Sathyavagiswaran%NULL%1,                            Wendy%Stroh%NULL%1,                            Suzanne%Utley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dominic%Wichmann%NULL%1,                            Jan-Peter%Sperhake%NULL%2,                            Marc%Lütgehetmann%NULL%2,                            Stefan%Steurer%NULL%2,                            Carolin%Edler%NULL%1,                            Axel%Heinemann%NULL%2,                            Fabian%Heinrich%NULL%2,                            Herbert%Mushumba%NULL%2,                            Inga%Kniep%NULL%1,                            Ann Sophie%Schröder%NULL%2,                            Christoph%Burdelski%NULL%2,                            Geraldine%de Heer%NULL%2,                            Axel%Nierhaus%NULL%2,                            Daniel%Frings%NULL%2,                            Susanne%Pfefferle%NULL%1,                            Heinrich%Becker%NULL%1,                            Hanns%Bredereke-Wiedling%NULL%1,                            Andreas%de Weerth%NULL%2,                            Hans-Richard%Paschen%NULL%1,                            Sara%Sheikhzadeh-Eggers%NULL%1,                            Axel%Stang%NULL%1,                            Stefan%Schmiedel%NULL%1,                            Carsten%Bokemeyer%NULL%1,                            Marylyn M.%Addo%NULL%1,                            Martin%Aepfelbacher%NULL%2,                            Klaus%Püschel%NULL%2,                            Stefan%Kluge%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%2,                            Jasmin D%Haslbauer%NULL%4,                            Jasmin D%Haslbauer%NULL%0,                            Ronny%Nienhold%NULL%2,                            Spasenija%Savic%NULL%2,                            Helmut%Hopfer%NULL%2,                            Nikolaus%Deigendesch%NULL%2,                            Stephan%Frank%NULL%2,                            Daniel%Turek%NULL%2,                            Niels%Willi%NULL%2,                            Hans%Pargger%NULL%2,                            Stefano%Bassetti%NULL%2,                            Joerg D%Leuppi%NULL%2,                            Gieri%Cathomas%NULL%2,                            Markus%Tolnay%NULL%2,                            Kirsten D%Mertz%NULL%2,                            Alexandar%Tzankov%alexandar.tzankov@usb.ch%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%0,                            Jasmin D%Haslbauer%NULL%0,                            Jasmin D%Haslbauer%NULL%0,                            Ronny%Nienhold%NULL%0,                            Spasenija%Savic%NULL%0,                            Helmut%Hopfer%NULL%0,                            Nikolaus%Deigendesch%NULL%0,                            Stephan%Frank%NULL%0,                            Daniel%Turek%NULL%0,                            Niels%Willi%NULL%0,                            Hans%Pargger%NULL%0,                            Stefano%Bassetti%NULL%0,                            Joerg D%Leuppi%NULL%0,                            Gieri%Cathomas%NULL%0,                            Markus%Tolnay%NULL%0,                            Kirsten D%Mertz%NULL%0,                            Alexandar%Tzankov%alexandar.tzankov@usb.ch%0]</t>
+  </si>
+  <si>
+    <t>[Zsuzsanna%Varga%NULL%1,                            Andreas J%Flammer%NULL%1,                            Peter%Steiger%NULL%1,                            Martina%Haberecker%NULL%1,                            Rea%Andermatt%NULL%1,                            Annelies S%Zinkernagel%NULL%1,                            Mandeep R%Mehra%NULL%1,                            Reto A%Schuepbach%NULL%1,                            Frank%Ruschitzka%frank.ruschitzka@usz.ch%1,                            Holger%Moch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sufang%Tian%NULL%1,                            Yong%Xiong%NULL%0,                            Huan%Liu%NULL%3,                            Li%Niu%NULL%1,                            Jianchun%Guo%NULL%1,                            Meiyan%Liao%NULL%1,                            Shu-Yuan%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lisa M%Barton%NULL%1,                            Eric J%Duval%NULL%1,                            Edana%Stroberg%NULL%1,                            Subha%Ghosh%NULL%1,                            Sanjay%Mukhopadhyay%mukhops@ccf.org%1]</t>
+  </si>
+  <si>
+    <t>[Pedro%Navarro Conde%navarro_ped@gva.es%1,                            Pilar%Alemany Monraval%NULL%1,                            Carmen%Medina Medina%NULL%1,                            Ana%Jiménez Sánchez%NULL%1,                            Juan Carlos%Andrés Teruel%NULL%1,                            José%Ferrando Marco%NULL%1,                            Víctor%Puglia Santos%NULL%1,                            Empar%Mayordomo Aranda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolin%Edler%NULL%1,                            Ann Sophie%Schröder%NULL%0,                            Martin%Aepfelbacher%NULL%0,                            Antonia%Fitzek%NULL%1,                            Axel%Heinemann%NULL%0,                            Fabian%Heinrich%NULL%0,                            Anke%Klein%NULL%1,                            Felicia%Langenwalder%NULL%1,                            Marc%Lütgehetmann%NULL%0,                            Kira%Meißner%NULL%1,                            Klaus%Püschel%NULL%0,                            Julia%Schädler%NULL%1,                            Stefan%Steurer%NULL%0,                            Herbert%Mushumba%NULL%0,                            Jan-Peter%Sperhake%sperhake@uke.de%0]</t>
+  </si>
+  <si>
+    <t>[Miroslav%Sekulic%NULL%1,                            Holly%Harper%NULL%1,                            Behtash G%Nezami%NULL%1,                            Daniel L%Shen%NULL%1,                            Simona Pichler%Sekulic%NULL%1,                            Aaron T%Koeth%NULL%1,                            Clifford V%Harding%NULL%1,                            Hannah%Gilmore%NULL%1,                            Navid%Sadri%navid.sadri@uhhospitals.org%1]</t>
+  </si>
+  <si>
+    <t>[Christine%Suess%NULL%1,                            Roland%Hausmann%roland.hausmann@kssg.ch%1]</t>
+  </si>
+  <si>
+    <t>[Diego%Aguiar%diego.aguiar@hcuge.ch%1,                            Johannes Alexander%Lobrinus%NULL%2,                            Johannes Alexander%Lobrinus%NULL%0,                            Manuel%Schibler%NULL%1,                            Tony%Fracasso%NULL%1,                            Christelle%Lardi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sharon E%Fox%NULL%1,                            Aibek%Akmatbekov%NULL%1,                            Jack L%Harbert%NULL%1,                            Guang%Li%NULL%1,                            J%Quincy Brown%NULL%1,                            Richard S%Vander Heide%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mohammad Taghi%Beigmohammadi%NULL%1,                            Behnaz%Jahanbin%NULL%1,                            Masoomeh%Safaei%NULL%1,                            Laya%Amoozadeh%NULL%1,                            Meysam%Khoshavi%NULL%1,                            Vahid%Mehrtash%NULL%1,                            Bita%Jafarzadeh%NULL%1,                            Alireza%Abdollahi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaofu%Wang%wangchaofu@126.com%1,                            Jing%Xie%NULL%2,                            Lei%Zhao%NULL%1,                            Xiaochun%Fei%NULL%1,                            Heng%Zhang%NULL%1,                            Yun%Tan%NULL%1,                            Xiu%Nie%NULL%1,                            Luting%Zhou%NULL%1,                            Zhenhua%Liu%NULL%1,                            Yong%Ren%NULL%1,                            Ling%Yuan%NULL%1,                            Yu%Zhang%NULL%1,                            Jinsheng%Zhang%NULL%1,                            Liwei%Liang%NULL%1,                            Xinwei%Chen%NULL%1,                            Xin%Liu%NULL%1,                            Peng%Wang%NULL%1,                            Xiao%Han%NULL%1,                            Xiangqin%Weng%NULL%1,                            Ying%Chen%NULL%1,                            Ting%Yu%NULL%0,                            Xinxin%Zhang%NULL%0,                            Jun%Cai%caijun@shsmu.edu.cn%1,                            Rong%Chen%crjudy@126.com%2,                            Zhengli%Shi%zlshi@wh.iov.cn%2,                            Xiuwu%Bian%bianxiuwu@263.net%1]</t>
+  </si>
+  <si>
+    <t>[Hans%Bösmüller%hans.boesmueller@med.uni-tuebingen.de%1,                            Selina%Traxler%NULL%2,                            Selina%Traxler%NULL%0,                            Michael%Bitzer%NULL%1,                            Helene%Häberle%NULL%1,                            Wolfgang%Raiser%NULL%1,                            Dominik%Nann%NULL%1,                            Leonie%Frauenfeld%NULL%1,                            Antonio%Vogelsberg%NULL%1,                            Karin%Klingel%NULL%1,                            Falko%Fend%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wolf%Schweitzer%wolf.schweitzer@irm.uzh.ch%1,                            Thomas%Ruder%NULL%1,                            Rilana%Baumeister%NULL%1,                            Stephan%Bolliger%NULL%1,                            Michael%Thali%NULL%1,                            Eva%Meixner%NULL%1,                            Garyfalia%Ampanozi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhe%Xu%NULL%1,                            Lei%Shi%NULL%1,                            Yijin%Wang%NULL%1,                            Jiyuan%Zhang%NULL%1,                            Lei%Huang%NULL%2,                            Chao%Zhang%NULL%1,                            Shuhong%Liu%NULL%1,                            Peng%Zhao%NULL%1,                            Hongxia%Liu%NULL%1,                            Li%Zhu%NULL%1,                            Yanhong%Tai%NULL%1,                            Changqing%Bai%NULL%1,                            Tingting%Gao%NULL%1,                            Jinwen%Song%NULL%1,                            Peng%Xia%NULL%1,                            Jinghui%Dong%NULL%1,                            Jingmin%Zhao%NULL%1,                            Fu-Sheng%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mathilde%Ducloyer%Mathilde.ducloyer@chu-nantes.fr%1,                            Benjamin%Gaborit%NULL%2,                            Benjamin%Gaborit%NULL%0,                            Claire%Toquet%NULL%1,                            Louise%Castain%NULL%1,                            Antonin%Bal%NULL%1,                            Pierre Paul%Arrigoni%NULL%1,                            Raphaël%Lecomte%NULL%1,                            Renaud%Clement%NULL%1,                            Christine%Sagan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andreea-Elena%Cîrstea%NULL%1,                            Radu Lucian%Buzulică%NULL%1,                            Daniel%Pirici%NULL%1,                            Mihail Constantin%Ceauşu%NULL%1,                            Radu Vasile%Iman%NULL%1,                            Ovidiu-Mircea%Gheorghe%NULL%1,                            Simona Daniela%Neamţu%NULL%1,                            Liliana%Stanca%NULL%1,                            Răzvan%Ene%NULL%1,                            Samir%Kumar-Singh%NULL%1,                            Laurenţiu%Mogoantă%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leo%Nicolai%NULL%1,                            Alexander%Leunig%NULL%1,                            Sophia%Brambs%NULL%1,                            Rainer%Kaiser%NULL%1,                            Tobias%Weinberger%NULL%1,                            Michael%Weigand%NULL%1,                            Maximilian%Muenchhoff%NULL%1,                            Johannes C.%Hellmuth%NULL%1,                            Stephan%Ledderose%NULL%1,                            Heiko%Schulz%NULL%1,                            Clemens%Scherer%NULL%1,                            Martina%Rudelius%NULL%1,                            Michael%Zoller%NULL%1,                            Dominik%Höchter%NULL%1,                            Oliver%Keppler%NULL%1,                            Daniel%Teupser%NULL%1,                            Bernhard%Zwißler%NULL%1,                            Michael%von Bergwelt-Baildon%NULL%1,                            Stefan%Kääb%NULL%1,                            Steffen%Massberg%NULL%1,                            Kami%Pekayvaz%NULL%1,                            Konstantin%Stark%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Claudia%Grosse%NULL%1,                            Alexandra%Grosse%NULL%1,                            Helmut J.F.%Salzer%NULL%1,                            Martin W.%Dünser%NULL%1,                            Reinhard%Motz%NULL%1,                            Rupert%Langer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Myriam%Remmelink%NULL%1,                            Ricardo%De Mendonça%NULL%1,                            Nicky%D’Haene%NULL%1,                            Sarah%De Clercq%NULL%1,                            Camille%Verocq%NULL%1,                            Laetitia%Lebrun%NULL%1,                            Philomène%Lavis%NULL%1,                            Marie-Lucie%Racu%NULL%1,                            Anne-Laure%Trépant%NULL%1,                            Calliope%Maris%NULL%1,                            Sandrine%Rorive%NULL%1,                            Jean-Christophe%Goffard%NULL%1,                            Olivier%De Witte%NULL%1,                            Lorenzo%Peluso%NULL%1,                            Jean-Louis%Vincent%NULL%1,                            Christine%Decaestecker%NULL%1,                            Fabio Silvio%Taccone%NULL%1,                            Isabelle%Salmon%Isabelle.Salmon@erasme.ulb.ac.be%1]</t>
+  </si>
+  <si>
+    <t>[Koji%Okudela%kojixok@yokohama.cu.ac.jp%1,                            Hiroyuki%Hayashi%NULL%2,                            Hiroyuki%Hayashi%NULL%0,                            Yukihiro%Yoshimura%NULL%1,                            Hiroaki%Sasaki%NULL%1,                            Hiroshi%Horiuchi%NULL%1,                            Nobuyuki%Miyata%NULL%1,                            Natsuo%Tachikawa%NULL%1,                            Yuki%Tsuchiya%NULL%1,                            Hideaki%Mitsui%NULL%1,                            Kenichi%Ohashi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Takuya%Adachi%NULL%1,                            Ja-Mun%Chong%NULL%1,                            Noriko%Nakajima%NULL%1,                            Masahiro%Sano%NULL%1,                            Jun%Yamazaki%NULL%1,                            Ippei%Miyamoto%NULL%1,                            Haruka%Nishioka%NULL%1,                            Hidetaka%Akita%NULL%1,                            Yuko%Sato%NULL%1,                            Michiyo%Kataoka%NULL%1,                            Harutaka%Katano%NULL%1,                            Minoru%Tobiume%NULL%1,                            Tsuyoshi%Sekizuka%NULL%1,                            Kentaro%Itokawa%NULL%1,                            Makoto%Kuroda%NULL%1,                            Tadaki%Suzuki%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Girish N.%Nadkarni%NULL%1,                            Anuradha%Lala%NULL%1,                            Emilia%Bagiella%NULL%1,                            Helena L.%Chang%NULL%1,                            Pedro R.%Moreno%NULL%1,                            Elisabet%Pujadas%NULL%1,                            Varun%Arvind%NULL%1,                            Sonali%Bose%NULL%1,                            Alexander W.%Charney%NULL%1,                            Martin D.%Chen%NULL%1,                            Carlos%Cordon-Cardo%NULL%1,                            Andrew S.%Dunn%NULL%1,                            Michael E.%Farkouh%NULL%1,                            Benjamin S.%Glicksberg%NULL%1,                            Arash%Kia%NULL%1,                            Roopa%Kohli-Seth%NULL%1,                            Matthew A.%Levin%NULL%1,                            Prem%Timsina%NULL%1,                            Shan%Zhao%NULL%1,                            Zahi A.%Fayad%NULL%5,                            Valentin%Fuster%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Osama%Al-Dalahmah%oa2298@cumc.columbia.edu%1,                            Kiran T.%Thakur%NULL%2,                            Kiran T.%Thakur%NULL%0,                            Anna S.%Nordvig%NULL%1,                            Morgan L.%Prust%NULL%1,                            William%Roth%NULL%1,                            Angela%Lignelli%NULL%1,                            Anne-Catrin%Uhlemann%NULL%1,                            Emily Happy%Miller%NULL%1,                            Shajo%Kunnath-Velayudhan%NULL%1,                            Armando%Del Portillo%NULL%1,                            Yang%Liu%NULL%1,                            Gunnar%Hargus%NULL%1,                            Andrew F.%Teich%NULL%1,                            Richard A.%Hickman%NULL%1,                            Kurenai%Tanji%NULL%1,                            James E.%Goldman%NULL%1,                            Phyllis L.%Faust%NULL%1,                            Peter%Canoll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[George-Călin%Oprinca%george_oprinca@yahoo.com%1,                            Lilioara-Alexandra%Muja%NULL%2,                            Lilioara-Alexandra%Muja%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xin-xin%Wang%NULL%1,                            Chen%Shao%NULL%2,                            Chen%Shao%NULL%0,                            Xiao-jie%Huang%NULL%1,                            Lin%Sun%NULL%1,                            Ling-jia%Meng%NULL%1,                            Hui%Liu%NULL%2,                            Shi-jie%Zhang%NULL%1,                            Hong-jun%Li%NULL%1,                            Fu-dong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sarah S.%Elsoukkary%NULL%1,                            Maria%Mostyka%NULL%1,                            Alicia%Dillard%NULL%1,                            Diana R.%Berman%NULL%1,                            Lucy X.%Ma%NULL%1,                            Amy%Chadburn%NULL%1,                            Rhonda K.%Yantiss%NULL%1,                            Jose%Jessurun%NULL%1,                            Surya V.%Seshan%NULL%1,                            Alain C.%Borczuk%NULL%1,                            Steven P.%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian%Hanley%NULL%1,                            Kikkeri N%Naresh%NULL%1,                            Candice%Roufosse%NULL%1,                            Andrew G%Nicholson%NULL%1,                            Justin%Weir%NULL%1,                            Graham S%Cooke%NULL%1,                            Mark%Thursz%NULL%1,                            Pinelopi%Manousou%NULL%1,                            Richard%Corbett%NULL%1,                            Robert%Goldin%NULL%1,                            Safa%Al-Sarraj%NULL%1,                            Alireza%Abdolrasouli%NULL%1,                            Olivia C%Swann%NULL%1,                            Laury%Baillon%NULL%1,                            Rebecca%Penn%NULL%1,                            Wendy S%Barclay%NULL%1,                            Patrizia%Viola%NULL%1,                            Michael%Osborn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Amaro N%Duarte‐Neto%NULL%0, Renata A A%Monteiro%NULL%2, Renata A A%Monteiro%NULL%0, Luiz F F%da Silva%NULL%1, Denise M A C%Malheiros%NULL%1, Ellen P%de Oliveira%NULL%1, Jair%Theodoro‐Filho%NULL%1, João R R%Pinho%NULL%1, Michele S%Gomes‐Gouvêa%NULL%1, Ana P M%Salles%NULL%1, Ilka R S%de Oliveira%NULL%1, Thais%Mauad%NULL%1, Paulo H N%Saldiva%NULL%1, Marisa%Dolhnikoff%maridol@usp.br%1]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t>[Louis Maximilian%Buja%l.maximilian.buja@uth.tmc.edu%0, Dwayne A.%Wolf%NULL%1, Bihong%Zhao%NULL%1, Bindu%Akkanti%NULL%1, Michelle%McDonald%NULL%1, Laura%Lelenwa%NULL%1, Noah%Reilly%NULL%1, Giulia%Ottaviani%NULL%1, M. Tarek%Elghetany%NULL%1, Daniel Ocazionez%Trujillo%NULL%1, Gabriel M.%Aisenberg%NULL%1, Mohammad%Madjid%NULL%1, Biswajit%Kar%NULL%1]</t>
+  </si>
+  <si>
+    <t>Elsevier Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a result of the 2019 novel human coronavirus (COVID-19) global spread, medical examiner/coroner offices will inevitably encounter increased numbers of COVID-19–infected decedents at autopsy.
+ While in some cases a history of fever and/or respiratory distress (eg, cough or shortness of breath) may suggest the diagnosis, epidemiologic studies indicate that the majority of individuals infected with COVID-19 develop mild to no symptoms.
+ Those dying with—but not of—COVID-19 may still be infectious, however.
+ While multiple guidelines have been issued regarding autopsy protocol in cases of suspected COVID-19 deaths, there is some variability in the recommendations.
+ Additionally, limited recommendations to date have been issued regarding scene investigative protocol, and there is a paucity of publications characterizing COVID-19 postmortem gross and histologic findings.
+ A case of sudden unexpected death due to COVID-19 is presented as a means of illustrating common autopsy findings, as well as diagnostic and biosafety considerations.
+ We also review and summarize the current COVID-19 literature in an effort to provide practical evidence-based biosafety guidance for medical examiner-coroner offices encountering COVID-19 at autopsy.
+</t>
+  </si>
+  <si>
+    <t>[J. Matthew%Lacy%NULL%0, Erin G.%Brooks%NULL%1, Joshua%Akers%NULL%1, Danielle%Armstrong%NULL%1, Lauren%Decker%NULL%1, Adam%Gonzalez%NULL%1, William%Humphrey%NULL%1, Romana%Mayer%NULL%1, Matthew%Miller%NULL%1, Catherine%Perez%NULL%1, Jose Antonio Ruiz%Arango%NULL%1, Lakshmanan%Sathyavagiswaran%NULL%1, Wendy%Stroh%NULL%1, Suzanne%Utley%NULL%1]</t>
+  </si>
+  <si>
+    <t>Lippincott Williams &amp;amp; Wilkins</t>
+  </si>
+  <si>
+    <t>[Dominic%Wichmann%NULL%0, Jan-Peter%Sperhake%NULL%2, Marc%Lütgehetmann%NULL%2, Stefan%Steurer%NULL%2, Carolin%Edler%NULL%0, Axel%Heinemann%NULL%2, Fabian%Heinrich%NULL%2, Herbert%Mushumba%NULL%2, Inga%Kniep%NULL%1, Ann Sophie%Schröder%NULL%2, Christoph%Burdelski%NULL%3, Geraldine%de Heer%NULL%3, Axel%Nierhaus%NULL%3, Daniel%Frings%NULL%3, Susanne%Pfefferle%NULL%1, Heinrich%Becker%NULL%1, Hanns%Bredereke-Wiedling%NULL%1, Andreas%de Weerth%NULL%3, Hans-Richard%Paschen%NULL%1, Sara%Sheikhzadeh-Eggers%NULL%1, Axel%Stang%NULL%1, Stefan%Schmiedel%NULL%1, Carsten%Bokemeyer%NULL%1, Marylyn M.%Addo%NULL%1, Martin%Aepfelbacher%NULL%2, Klaus%Püschel%NULL%2, Stefan%Kluge%NULL%4]</t>
+  </si>
+  <si>
+    <t>American College of Physicians</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%0, Jasmin D%Haslbauer%NULL%4, Jasmin D%Haslbauer%NULL%0, Ronny%Nienhold%NULL%2, Spasenija%Savic%NULL%2, Helmut%Hopfer%NULL%2, Nikolaus%Deigendesch%NULL%2, Stephan%Frank%NULL%2, Daniel%Turek%NULL%2, Niels%Willi%NULL%2, Hans%Pargger%NULL%2, Stefano%Bassetti%NULL%2, Joerg D%Leuppi%NULL%2, Gieri%Cathomas%NULL%2, Markus%Tolnay%NULL%2, Kirsten D%Mertz%NULL%2, Alexandar%Tzankov%alexandar.tzankov@usb.ch%2]</t>
+  </si>
+  <si>
+    <t>[Zsuzsanna%Varga%NULL%0, Andreas J%Flammer%NULL%1, Peter%Steiger%NULL%1, Martina%Haberecker%NULL%1, Rea%Andermatt%NULL%1, Annelies S%Zinkernagel%NULL%1, Mandeep R%Mehra%NULL%1, Reto A%Schuepbach%NULL%1, Frank%Ruschitzka%frank.ruschitzka@usz.ch%3, Holger%Moch%NULL%1]</t>
+  </si>
+  <si>
+    <t>Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data on pathologic changes of the 2019 novel coronavirus disease (COVID-19) are scarce.
+ To gain knowledge about the pathology that may contribute to disease progression and fatality, we performed postmortem needle core biopsies of lung, liver, and heart in four patients who died of COVID-19 pneumonia.
+ The patients' ages ranged from 59 to 81, including three males and one female.
+ Each patient had at least one underlying disease, including immunocompromised status (chronic lymphocytic leukemia and renal transplantation) or other conditions (cirrhosis, hypertension, and diabetes).
+ Time from disease onset to death ranged from 15 to 52 days.
+ All patients had elevated white blood cell counts, with significant rise toward the end, and all had lymphocytopenia except for the patient with leukemia.
+ Histologically, the main findings are in the lungs, including injury to the alveolar epithelial cells, hyaline membrane formation, and hyperplasia of type II pneumocytes, all components of diffuse alveolar damage.
+ Consolidation by fibroblastic proliferation with extracellular matrix and fibrin forming clusters in airspaces is evident.
+ In one patient, the consolidation consists of abundant intra-alveolar neutrophilic infiltration, consistent with superimposed bacterial bronchopneumonia.
+ The liver exhibits mild lobular infiltration by small lymphocytes, and centrilobular sinusoidal dilation.
+ Patchy necrosis is also seen.
+ The heart shows only focal mild fibrosis and mild myocardial hypertrophy, changes likely related to the underlying conditions.
+ In conclusion, the postmortem examinations show advanced diffuse alveolar damage, as well as superimposed bacterial pneumonia in some patients.
+ Changes in the liver and heart are likely secondary or related to the underlying diseases.
+</t>
+  </si>
+  <si>
+    <t>[Sufang%Tian%NULL%0, Yong%Xiong%NULL%0, Huan%Liu%NULL%0, Li%Niu%NULL%1, Jianchun%Guo%NULL%1, Meiyan%Liao%NULL%1, Shu-Yuan%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>United States &amp;amp; Canadian Academy of Pathology.</t>
+  </si>
+  <si>
+    <t>[Lisa M%Barton%NULL%0, Eric J%Duval%NULL%1, Edana%Stroberg%NULL%1, Subha%Ghosh%NULL%1, Sanjay%Mukhopadhyay%mukhops@ccf.org%1]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The new coronavirus SARS-CoV-2, first identified in Wuhan, China in December, 2019, can cause Severe Acute Respiratory Syndrome (SARS) with massive alveolar damage and progressive respiratory failure.
+ We present the relevant autopsy findings of the first patient known to have died from COVID19 pneumonia in Spain, carried out on the 14th of February, 2020, in our hospital (Hospital Arnau de Vilanova-Lliria, Valencia).
+ Histological examination revealed typical changes of diffuse alveolar damage (DAD) in both the exudative and proliferative phase of acute lung injury.
+ Intra-alveolar multinucleated giant cells, smudge cells and vascular thrombosis were present.
+ The diagnosis was confirmed by reverse real-time PCR assay on a throat swab sample taken during the patient's admission.
+ The positive result was reported fifteen days subsequent to autopsy.
+</t>
+  </si>
+  <si>
+    <t>[Pedro%Navarro Conde%navarro_ped@gva.es%0, Pilar%Alemany Monraval%NULL%1, Carmen%Medina Medina%NULL%1, Ana%Jiménez Sánchez%NULL%1, Juan Carlos%Andrés Teruel%NULL%1, José%Ferrando Marco%NULL%1, Víctor%Puglia Santos%NULL%1, Empar%Mayordomo Aranda%NULL%1]</t>
+  </si>
+  <si>
+    <t>Sociedad Española de Anatomía Patológica. Published by Elsevier España, S.L.U.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id="Par1"&gt;Autopsies of deceased with a confirmed severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) infection can provide important insights into the novel disease and its course.
+ Furthermore, autopsies are essential for the correct statistical recording of the coronavirus disease 2019 (COVID-19) deaths.
+ In the northern German Federal State of Hamburg, all deaths of Hamburg citizens with ante- or postmortem PCR-confirmed SARS-CoV-2 infection have been autopsied since the outbreak of the pandemic in Germany.
+ Our evaluation provides a systematic overview of the first 80 consecutive full autopsies.
+ A proposal for the categorisation of deaths with SARS-CoV-2 infection is presented (category 1: definite COVID-19 death; category 2: probable COVID-19 death; category 3: possible COVID-19 death with an equal alternative cause of death; category 4: SARS-CoV-2 detection with cause of death not associated to COVID-19).
+ In six cases, SARS-CoV-2 infection was diagnosed postmortem by a positive PCR test in a nasopharyngeal or lung tissue swab.
+ In the other 74 cases, SARS-CoV-2 infection had already been known antemortem.
+ The deceased were aged between 52 and 96 years (average 79.2 years, median 82.4 years).
+ In the study cohort, 34 deceased were female (38%) and 46 male (62%).
+ Overall, 38% of the deceased were overweight or obese.
+ All deceased, except for two women, in whom no significant pre-existing conditions were found autoptically, had relevant comorbidities (in descending order of frequency): (1) diseases of the cardiovascular system, (2) lung diseases, (3) central nervous system diseases, (4) kidney diseases, and (5) diabetes mellitus.
+ A total of 76 cases (95%) were classified as COVID-19 deaths, corresponding to categories 1–3. Four deaths (5%) were defined as non-COVID-19 deaths with virus-independent causes of death.
+ In eight cases, pneumonia was combined with a fulminant pulmonary artery embolism.
+ Peripheral pulmonary artery embolisms were found in nine other cases.
+ Overall, deep vein thrombosis has been found in 40% of the cases.
+ This study provides the largest overview of autopsies of SARS-CoV-2-infected patients presented so far.
+</t>
+  </si>
+  <si>
+    <t>Springer Berlin Heidelberg</t>
+  </si>
+  <si>
+    <t>[Miroslav%Sekulic%NULL%0, Holly%Harper%NULL%1, Behtash G%Nezami%NULL%1, Daniel L%Shen%NULL%1, Simona Pichler%Sekulic%NULL%1, Aaron T%Koeth%NULL%1, Clifford V%Harding%NULL%1, Hannah%Gilmore%NULL%1, Navid%Sadri%navid.sadri@uhhospitals.org%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id="Par1"&gt;Forensic investigations generally contain extensive morphological examinations to accurately diagnose the cause of death.
+ Thus, the appearance of a new disease often creates emerging challenges in morphological examinations due to the lack of available data from autopsy- or biopsy-based research.
+ Since late December 2019, an outbreak of a novel seventh coronavirus disease has been reported in China caused by “severe acute respiratory syndrome coronavirus 2” (SARS-CoV-2).
+ On March 11, 2020, the new clinical condition COVID-19 (Corona-Virus-Disease-19) was declared a pandemic by the World Health Organization (WHO).
+ Patients with COVID-19 mainly have a mild disease course, but severe disease onset might result in death due to proceeded lung injury with massive alveolar damage and progressive respiratory failure.
+ However, the detailed mechanisms that cause organ injury still remain unclear.
+ We investigated the morphological findings of a COVID-19 patient who died during self-isolation.
+ Pathologic examination revealed massive bilateral alveolar damage, indicating early-phase “acute respiratory distress syndrome” (ARDS).
+ This case emphasizes the possibility of a rapid severe disease onset in previously mild clinical condition and highlights the necessity of a complete autopsy to gain a better understanding of the pathophysiological changes in SARS-CoV-2 infections.
+</t>
+  </si>
+  <si>
+    <t>[Christine%Suess%NULL%0, Roland%Hausmann%roland.hausmann@kssg.ch%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id="Par1"&gt;In the setting of the coronavirus disease 2019 (COVID-19) pandemic, only few data regarding lung pathology induced by severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) is available, especially without medical intervention interfering with the natural evolution of the disease.
+ We present here the first case of forensic autopsy of a COVID-19 fatality occurring in a young woman, in the community.
+ Diagnosis was made at necropsy and lung histology showed diffuse alveolar damage, edema, and interstitial pneumonia with a geographically heterogeneous pattern, mostly affecting the central part of the lungs.
+ This death related to COVID-19 pathology highlights the heterogeneity and severity of central lung lesions after natural evolution of the disease.
+</t>
+  </si>
+  <si>
+    <t>[Diego%Aguiar%diego.aguiar@hcuge.ch%0, Johannes Alexander%Lobrinus%NULL%2, Johannes Alexander%Lobrinus%NULL%0, Manuel%Schibler%NULL%1, Tony%Fracasso%NULL%1, Christelle%Lardi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sharon E%Fox%NULL%0, Aibek%Akmatbekov%NULL%1, Jack L%Harbert%NULL%1, Guang%Li%NULL%1, J%Quincy Brown%NULL%1, Richard S%Vander Heide%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background.
+ A novel coronavirus named severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) has been affecting almost all nations around the world.
+ Most infected patients who have been admitted to intensive care units show SARS signs.
+ In this study, we aimed to achieve a better understanding of pathological alterations that take place during the novel coronavirus infection in most presumed affected organs.
+ Methods.
+ We performed postmortem core needle biopsies from lung, heart, and liver on 7 deceased patients who had died of coronavirus disease 2019. Prepared tissue sections were observed by 2 expert pathologists.
+ Results.
+ Diffuse alveolar damage was the main pathologic finding in the lung tissue samples.
+ Patients with hospitalization durations of more than 10 days showed evidence of organization.
+ Multinucleated cells in alveolar spaces and alveolar walls, atypical enlarged cells, accumulation of macrophages in alveolar spaces, and congestion of vascular channels were the other histopathologic alteration of the lung.
+ None of our heart biopsy samples met the criteria for myocarditis.
+ Liver biopsies showed congestion, micro- and macro-vesicular changes, and minimal to mild portal inflammation, in the majority of cases.
+ Conclusions.
+ Similar to the previous coronavirus infection in 2003, the main pathologic finding in the lung was diffuse alveolar damage with a pattern of organization in prolonged cases.
+ The SARS-CoV-2 infection does not cause myocarditis, and the ischemia of myocardium is the most probable justification of the observed pathologic changes in the heart.
+ Liver tissue sections mostly showed nonspecific findings; however, ischemia of the liver can be identified in some cases.
+</t>
+  </si>
+  <si>
+    <t>[Mohammad Taghi%Beigmohammadi%NULL%0, Behnaz%Jahanbin%NULL%1, Masoomeh%Safaei%NULL%1, Laya%Amoozadeh%NULL%1, Meysam%Khoshavi%NULL%1, Vahid%Mehrtash%NULL%1, Bita%Jafarzadeh%NULL%1, Alireza%Abdollahi%NULL%1]</t>
+  </si>
+  <si>
+    <t>SAGE Publications</t>
+  </si>
+  <si>
+    <t>[Chaofu%Wang%wangchaofu@126.com%0, Jing%Xie%NULL%0, Lei%Zhao%NULL%1, Xiaochun%Fei%NULL%1, Heng%Zhang%NULL%2, Yun%Tan%NULL%1, Xiu%Nie%NULL%2, Luting%Zhou%NULL%1, Zhenhua%Liu%NULL%1, Yong%Ren%NULL%1, Ling%Yuan%NULL%1, Yu%Zhang%NULL%2, Jinsheng%Zhang%NULL%1, Liwei%Liang%NULL%1, Xinwei%Chen%NULL%1, Xin%Liu%NULL%3, Peng%Wang%NULL%1, Xiao%Han%NULL%1, Xiangqin%Weng%NULL%1, Ying%Chen%NULL%0, Ting%Yu%NULL%0, Xinxin%Zhang%NULL%0, Jun%Cai%caijun@shsmu.edu.cn%1, Rong%Chen%crjudy@126.com%0, Zhengli%Shi%zlshi@wh.iov.cn%2, Xiuwu%Bian%bianxiuwu@263.net%1]</t>
+  </si>
+  <si>
+    <t>Elsevier</t>
+  </si>
+  <si>
+    <t>[Hans%Bösmüller%hans.boesmueller@med.uni-tuebingen.de%0, Selina%Traxler%NULL%2, Selina%Traxler%NULL%0, Michael%Bitzer%NULL%1, Helene%Häberle%NULL%1, Wolfgang%Raiser%NULL%1, Dominik%Nann%NULL%1, Leonie%Frauenfeld%NULL%1, Antonio%Vogelsberg%NULL%1, Karin%Klingel%NULL%1, Falko%Fend%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wolf%Schweitzer%wolf.schweitzer@irm.uzh.ch%0, Thomas%Ruder%NULL%1, Rilana%Baumeister%NULL%1, Stephan%Bolliger%NULL%1, Michael%Thali%NULL%1, Eva%Meixner%NULL%1, Garyfalia%Ampanozi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhe%Xu%NULL%0, Lei%Shi%NULL%2, Yijin%Wang%NULL%1, Jiyuan%Zhang%NULL%1, Lei%Huang%NULL%0, Chao%Zhang%NULL%3, Shuhong%Liu%NULL%1, Peng%Zhao%NULL%3, Hongxia%Liu%NULL%1, Li%Zhu%NULL%0, Yanhong%Tai%NULL%1, Changqing%Bai%NULL%1, Tingting%Gao%NULL%1, Jinwen%Song%NULL%1, Peng%Xia%NULL%1, Jinghui%Dong%NULL%1, Jingmin%Zhao%NULL%1, Fu-Sheng%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id="Par1"&gt;A 75-year-old man presented to a French hospital with a 4-day fever after returning from a coronavirus disease-19 (COVID-19) cluster region.
+ A reverse-transcription polymerase chain reaction test was positive for severe acute respiratory syndrome coronavirus-2 (SARS CoV-2) using a nasopharyngeal swab sample.
+ After he returned home and a telephone follow-up, he was found deceased 9 days after first showing symptoms.
+ Whole-body, non-enhanced, post-mortem computed tomography (PMCT) and a forensic autopsy were performed approximately 48 h after death, with sanitary precautions.
+ The PMCT showed bilateral and diffuse crazy-paving lung opacities, with bilateral pleural effusions.
+ Post-mortem virology studies detected the presence of SARS-CoV-2 (B.
+1 lineage) in the nasopharynx, plasma, lung biopsies, pleural effusion and faeces confirming the persistence of viral ribonucleic acid 48 h after death.
+ Microscopic examination showed that severe lung damage was responsible for his death.
+ The main abnormality was diffuse alveolar damage, associated with different stages of inflammation and fibrosis.
+ This case is one of the first to describe complete post-mortem data for a COVID-19 death and highlights the ability of PMCT to detect severe involvement of the lungs before autopsy in an apparently natural death.
+ The present pathology results are concordant with previously reported findings and reinforce the disease pathogenesis hypothesis of combined viral replication with an inappropriate immune response.
+</t>
+  </si>
+  <si>
+    <t>[Mathilde%Ducloyer%Mathilde.ducloyer@chu-nantes.fr%0, Benjamin%Gaborit%NULL%2, Benjamin%Gaborit%NULL%0, Claire%Toquet%NULL%1, Louise%Castain%NULL%1, Antonin%Bal%NULL%1, Pierre Paul%Arrigoni%NULL%1, Raphaël%Lecomte%NULL%3, Renaud%Clement%NULL%1, Christine%Sagan%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are reporting a case of natural evolution and pathological data from a young person that was diagnosed with coronavirus disease 2019 (COVID-19).
+ All data has been collected from the autopsy of a 30-year-old female, which was performed by the Department of Forensic Medicine from Emergency County Hospital, Drobeta Turnu Severin, Mehedinţi County, Romania.
+ The infection with severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) was confirmed by reverse transcription polymerase chain reaction (RT–PCR) on the lung tissue which was obtained during autopsy.
+ This case provides the opportunity to study the natural evolution of COVID-19 pneumonia in a young person with clinical signs of pneumonia but without associated comorbidities.
+ The patient had not received any treatment.
+ The histopathological examination of the lung revealed a process of productive proliferation, proteinaceous and fibrin-macrophagic interalveolar spaces exudate, and lesions consistent with vasculitis.
+ In the heart, we identified a cardiac thrombus.
+ These changes are likely to suggest an advanced natural evolution of SARS-CoV-2 virus infection.
+</t>
+  </si>
+  <si>
+    <t>[Andreea-Elena%Cîrstea%NULL%0, Radu Lucian%Buzulică%NULL%1, Daniel%Pirici%NULL%1, Mihail Constantin%Ceauşu%NULL%1, Radu Vasile%Iman%NULL%1, Ovidiu-Mircea%Gheorghe%NULL%1, Simona Daniela%Neamţu%NULL%1, Liliana%Stanca%NULL%1, Răzvan%Ene%NULL%1, Samir%Kumar-Singh%NULL%1, Laurenţiu%Mogoantă%NULL%1]</t>
+  </si>
+  <si>
+    <t>Academy of Medical Sciences, Romanian Academy Publishing House, Bucharest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplemental Digital Content is available in the text.
+</t>
+  </si>
+  <si>
+    <t>[Leo%Nicolai%NULL%0, Alexander%Leunig%NULL%1, Sophia%Brambs%NULL%1, Rainer%Kaiser%NULL%1, Tobias%Weinberger%NULL%1, Michael%Weigand%NULL%1, Maximilian%Muenchhoff%NULL%1, Johannes C.%Hellmuth%NULL%1, Stephan%Ledderose%NULL%1, Heiko%Schulz%NULL%1, Clemens%Scherer%NULL%1, Martina%Rudelius%NULL%1, Michael%Zoller%NULL%1, Dominik%Höchter%NULL%1, Oliver%Keppler%NULL%1, Daniel%Teupser%NULL%1, Bernhard%Zwißler%NULL%1, Michael%von Bergwelt-Baildon%NULL%1, Stefan%Kääb%NULL%1, Steffen%Massberg%NULL%1, Kami%Pekayvaz%NULL%1, Konstantin%Stark%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              Acute suppurative bronchopneumonia is a frequent complication in patients with COVID-19 and may be the major cause of death.
+</t>
+  </si>
+  <si>
+    <t>[Claudia%Grosse%NULL%0, Alexandra%Grosse%NULL%1, Helmut J.F.%Salzer%NULL%1, Martin W.%Dünser%NULL%1, Reinhard%Motz%NULL%1, Rupert%Langer%NULL%1]</t>
+  </si>
+  <si>
+    <t>Published by Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>[Myriam%Remmelink%NULL%0, Ricardo%De Mendonça%NULL%1, Nicky%D’Haene%NULL%1, Sarah%De Clercq%NULL%1, Camille%Verocq%NULL%1, Laetitia%Lebrun%NULL%1, Philomène%Lavis%NULL%1, Marie-Lucie%Racu%NULL%1, Anne-Laure%Trépant%NULL%1, Calliope%Maris%NULL%1, Sandrine%Rorive%NULL%1, Jean-Christophe%Goffard%NULL%1, Olivier%De Witte%NULL%1, Lorenzo%Peluso%NULL%1, Jean-Louis%Vincent%NULL%1, Christine%Decaestecker%NULL%1, Fabio Silvio%Taccone%NULL%1, Isabelle%Salmon%Isabelle.Salmon@erasme.ulb.ac.be%1]</t>
+  </si>
+  <si>
+    <t>BioMed Central</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A 93‐year‐old woman was admitted with a 10‐day history of cough and prostration.
+ Thoracic computed tomography revealed extensive ground‐glass opacities in both the lungs.
+ The polymerase chain reaction test of sputum for severe acute respiratory syndrome‐coronavirus‐2 (SARS‐CoV‐2) was positive.
+ She was treated with antiviral agents and steroid pulse therapy.
+ However, her oxygen saturation gradually declined, and she died 10 days after hospitalization.
+ The most important autopsy finding was fuzzily segmented diffuse alveolar damage (DAD) that expanded from the subpleural to the medial area.
+ No remarkable changes were observed in organs other than the lungs.
+ Therefore, pneumocytes were suggested as the primary target for SARS‐CoV‐2, which might explain why coronavirus infectious disease‐19 is a serious condition.
+ Thus, early treatment is essential to prevent viral replication from reaching a level that triggers DAD.
+</t>
+  </si>
+  <si>
+    <t>[Koji%Okudela%kojixok@yokohama.cu.ac.jp%0, Hiroyuki%Hayashi%NULL%2, Hiroyuki%Hayashi%NULL%0, Yukihiro%Yoshimura%NULL%1, Hiroaki%Sasaki%NULL%1, Hiroshi%Horiuchi%NULL%1, Nobuyuki%Miyata%NULL%1, Natsuo%Tachikawa%NULL%1, Yuki%Tsuchiya%NULL%1, Hideaki%Mitsui%NULL%1, Kenichi%Ohashi%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An autopsy of a patient in Japan with coronavirus disease indicated pneumonia lung pathology, manifested as diffuse alveolar damage.
+ We detected severe acute respiratory syndrome coronavirus 2 antigen in alveolar epithelial cells and macrophages.
+ Coronavirus disease is essentially a lower respiratory tract disease characterized by direct viral injury of alveolar epithelial cells.
+</t>
+  </si>
+  <si>
+    <t>[Takuya%Adachi%NULL%0, Ja-Mun%Chong%NULL%1, Noriko%Nakajima%NULL%1, Masahiro%Sano%NULL%1, Jun%Yamazaki%NULL%1, Ippei%Miyamoto%NULL%1, Haruka%Nishioka%NULL%1, Hidetaka%Akita%NULL%1, Yuko%Sato%NULL%1, Michiyo%Kataoka%NULL%1, Harutaka%Katano%NULL%1, Minoru%Tobiume%NULL%1, Tsuyoshi%Sekizuka%NULL%1, Kentaro%Itokawa%NULL%1, Makoto%Kuroda%NULL%1, Tadaki%Suzuki%NULL%1]</t>
+  </si>
+  <si>
+    <t>Centers for Disease Control and Prevention</t>
+  </si>
+  <si>
+    <t>[Girish N.%Nadkarni%NULL%0, Anuradha%Lala%NULL%0, Emilia%Bagiella%NULL%6, Helena L.%Chang%NULL%1, Pedro R.%Moreno%NULL%1, Elisabet%Pujadas%NULL%1, Varun%Arvind%NULL%1, Sonali%Bose%NULL%2, Alexander W.%Charney%NULL%1, Martin D.%Chen%NULL%1, Carlos%Cordon-Cardo%NULL%5, Andrew S.%Dunn%NULL%1, Michael E.%Farkouh%NULL%1, Benjamin S.%Glicksberg%NULL%2, Arash%Kia%NULL%5, Roopa%Kohli-Seth%NULL%1, Matthew A.%Levin%NULL%5, Prem%Timsina%NULL%5, Shan%Zhao%NULL%4, Zahi A.%Fayad%NULL%6, Valentin%Fuster%NULL%4]</t>
+  </si>
+  <si>
+    <t>Published by Elsevier on behalf of the American College of Cardiology Foundation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id="Par1"&gt;We document the neuropathologic findings of a 73-year old man who died from acute cerebellar hemorrhage in the context of relatively mild SARS-CoV2 infection.
+ The patient developed sudden onset of headache, nausea, and vomiting, immediately followed by loss of consciousness on the day of admission.
+ Emergency medical services found him severely hypoxemic at home, and the patient suffered a cardiac arrest during transport to the emergency department.
+ The emergency team achieved return of spontaneous circulation after over 17 min of resuscitation.
+ A chest radiograph revealed hazy bilateral opacities; and real-time-PCR for SARS-CoV-2 on the nasopharyngeal swab was positive.
+ Computed tomography of the head showed a large right cerebellar hemorrhage, with tonsillar herniation and intraventricular hemorrhage.
+ One day after presentation, he was transitioned to comfort care and died shortly after palliative extubation.
+ Autopsy performed 3 h after death showed cerebellar hemorrhage and acute infarcts in the dorsal pons and medulla.
+ Remarkably, there were microglial nodules and neuronophagia bilaterally in the inferior olives and multifocally in the cerebellar dentate nuclei.
+ This constellation of findings has not been reported thus far in the context of SARS-CoV-2 infection.
+</t>
+  </si>
+  <si>
+    <t>[Osama%Al-Dalahmah%oa2298@cumc.columbia.edu%0, Kiran T.%Thakur%NULL%2, Kiran T.%Thakur%NULL%0, Anna S.%Nordvig%NULL%1, Morgan L.%Prust%NULL%1, William%Roth%NULL%1, Angela%Lignelli%NULL%1, Anne-Catrin%Uhlemann%NULL%1, Emily Happy%Miller%NULL%1, Shajo%Kunnath-Velayudhan%NULL%1, Armando%Del Portillo%NULL%1, Yang%Liu%NULL%3, Gunnar%Hargus%NULL%1, Andrew F.%Teich%NULL%1, Richard A.%Hickman%NULL%1, Kurenai%Tanji%NULL%1, James E.%Goldman%NULL%1, Phyllis L.%Faust%NULL%1, Peter%Canoll%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id="Par1"&gt;This paper describes three autopsy cases with postmortem diagnosis of SARS-CoV-2 infection, with detailed macroscopic examination as well as advanced microscopic studies of organ tissues collected using hematoxylin-eosin stains and immunohistochemical markers.
+ Two of the cases were admitted briefly in the County Clinical Emergency Hospital of Sibiu, and one was found deceased at his home address.
+ All three autopsies were completed at the County morgue, in the COVID-19 restricted area, using complete protective equipment.
+ The lungs of the patients seemed to be the center organ of invasion and pathogenesis of the novel coronavirus with diffuse areas of condensation, subpleural retraction zones but with different aspect of the classic bacterial bronchopneumonia.
+ Microscopic evaluation revealed viral cytopathic effect of type II pneumocytes with a couple of cells that presented cytoplasmic and nuclear inclusions and who tend to form clusters mimicking multinucleated giant cells.
+ Hyaline membranes and destruction of the alveolar wall as well as microthrombi formation within the small blood vessels were constantly found in almost all our three cases.
+ The spleen had sustained white pulp atrophy with absence of lymphoid follicles.
+ There were no microscopic signs of viral infection on the myocardium or the other organs.
+</t>
+  </si>
+  <si>
+    <t>[George-Călin%Oprinca%george_oprinca@yahoo.com%0, Lilioara-Alexandra%Muja%NULL%2, Lilioara-Alexandra%Muja%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xin-xin%Wang%NULL%0, Chen%Shao%NULL%4, Chen%Shao%NULL%0, Xiao-jie%Huang%NULL%1, Lin%Sun%NULL%3, Ling-jia%Meng%NULL%1, Hui%Liu%NULL%0, Shi-jie%Zhang%NULL%1, Hong-jun%Li%NULL%1, Fu-dong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>BMJ Publishing Group</t>
+  </si>
+  <si>
+    <t>[Sarah S.%Elsoukkary%NULL%0, Maria%Mostyka%NULL%1, Alicia%Dillard%NULL%1, Diana R.%Berman%NULL%1, Lucy X.%Ma%NULL%1, Amy%Chadburn%NULL%1, Rhonda K.%Yantiss%NULL%1, Jose%Jessurun%NULL%1, Surya V.%Seshan%NULL%1, Alain C.%Borczuk%NULL%1, Steven P.%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>S. Karger AG</t>
+  </si>
+  <si>
+    <t>[Brian%Hanley%NULL%0, Kikkeri N%Naresh%NULL%1, Candice%Roufosse%NULL%1, Andrew G%Nicholson%NULL%1, Justin%Weir%NULL%1, Graham S%Cooke%NULL%2, Mark%Thursz%NULL%1, Pinelopi%Manousou%NULL%0, Richard%Corbett%NULL%1, Robert%Goldin%NULL%1, Safa%Al-Sarraj%NULL%1, Alireza%Abdolrasouli%NULL%1, Olivia C%Swann%NULL%1, Laury%Baillon%NULL%1, Rebecca%Penn%NULL%1, Wendy S%Barclay%NULL%2, Patrizia%Viola%NULL%1, Michael%Osborn%NULL%1]</t>
+  </si>
+  <si>
+    <t>The Author(s). Published by Elsevier Ltd.</t>
   </si>
 </sst>
 </file>
@@ -4416,7 +4934,7 @@
         <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>1144</v>
+        <v>1246</v>
       </c>
       <c r="F2" t="s">
         <v>57</v>
@@ -4428,10 +4946,10 @@
         <v>59</v>
       </c>
       <c r="I2" t="s">
-        <v>840</v>
+        <v>82</v>
       </c>
       <c r="J2" t="s">
-        <v>82</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="3">
@@ -4442,25 +4960,25 @@
         <v>44005.0</v>
       </c>
       <c r="C3" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>1145</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>246</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s">
         <v>60</v>
       </c>
       <c r="I3" t="s">
-        <v>842</v>
+        <v>82</v>
       </c>
       <c r="J3" t="s">
         <v>82</v>
@@ -4480,7 +4998,7 @@
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>1146</v>
+        <v>1248</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -4492,10 +5010,10 @@
         <v>65</v>
       </c>
       <c r="I4" t="s">
-        <v>844</v>
+        <v>82</v>
       </c>
       <c r="J4" t="s">
-        <v>82</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="5">
@@ -4506,28 +5024,28 @@
         <v>44075.0</v>
       </c>
       <c r="C5" t="s">
-        <v>396</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>397</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>647</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
-        <v>399</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s">
         <v>82</v>
       </c>
       <c r="J5" t="s">
-        <v>927</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
@@ -4541,10 +5059,10 @@
         <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>1250</v>
       </c>
       <c r="E6" t="s">
-        <v>1147</v>
+        <v>1251</v>
       </c>
       <c r="F6" t="s">
         <v>69</v>
@@ -4556,10 +5074,10 @@
         <v>70</v>
       </c>
       <c r="I6" t="s">
-        <v>840</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="7">
@@ -4576,7 +5094,7 @@
         <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>1148</v>
+        <v>1253</v>
       </c>
       <c r="F7" t="s">
         <v>74</v>
@@ -4588,10 +5106,10 @@
         <v>60</v>
       </c>
       <c r="I7" t="s">
-        <v>840</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="8">
@@ -4608,7 +5126,7 @@
         <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>1149</v>
+        <v>1255</v>
       </c>
       <c r="F8" t="s">
         <v>78</v>
@@ -4620,10 +5138,10 @@
         <v>79</v>
       </c>
       <c r="I8" t="s">
-        <v>840</v>
+        <v>82</v>
       </c>
       <c r="J8" t="s">
-        <v>82</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="9">
@@ -4640,7 +5158,7 @@
         <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>1150</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s">
         <v>78</v>
@@ -4652,10 +5170,10 @@
         <v>79</v>
       </c>
       <c r="I9" t="s">
-        <v>840</v>
+        <v>82</v>
       </c>
       <c r="J9" t="s">
-        <v>82</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="10">
@@ -4672,7 +5190,7 @@
         <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>1151</v>
+        <v>1256</v>
       </c>
       <c r="F10" t="s">
         <v>84</v>
@@ -4684,10 +5202,10 @@
         <v>60</v>
       </c>
       <c r="I10" t="s">
-        <v>844</v>
+        <v>82</v>
       </c>
       <c r="J10" t="s">
-        <v>82</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="11">
@@ -4701,10 +5219,10 @@
         <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>1258</v>
       </c>
       <c r="E11" t="s">
-        <v>1152</v>
+        <v>1259</v>
       </c>
       <c r="F11" t="s">
         <v>88</v>
@@ -4716,10 +5234,10 @@
         <v>89</v>
       </c>
       <c r="I11" t="s">
-        <v>852</v>
+        <v>82</v>
       </c>
       <c r="J11" t="s">
-        <v>82</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="12">
@@ -4736,7 +5254,7 @@
         <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>1153</v>
+        <v>1261</v>
       </c>
       <c r="F12" t="s">
         <v>93</v>
@@ -4748,10 +5266,10 @@
         <v>60</v>
       </c>
       <c r="I12" t="s">
-        <v>840</v>
+        <v>82</v>
       </c>
       <c r="J12" t="s">
-        <v>82</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="13">
@@ -4765,10 +5283,10 @@
         <v>94</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>1263</v>
       </c>
       <c r="E13" t="s">
-        <v>1154</v>
+        <v>1264</v>
       </c>
       <c r="F13" t="s">
         <v>97</v>
@@ -4780,10 +5298,10 @@
         <v>79</v>
       </c>
       <c r="I13" t="s">
-        <v>844</v>
+        <v>82</v>
       </c>
       <c r="J13" t="s">
-        <v>82</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="14">
@@ -4797,10 +5315,10 @@
         <v>98</v>
       </c>
       <c r="D14" t="s">
-        <v>571</v>
+        <v>1266</v>
       </c>
       <c r="E14" t="s">
-        <v>1155</v>
+        <v>100</v>
       </c>
       <c r="F14" t="s">
         <v>101</v>
@@ -4812,10 +5330,10 @@
         <v>102</v>
       </c>
       <c r="I14" t="s">
-        <v>856</v>
+        <v>82</v>
       </c>
       <c r="J14" t="s">
-        <v>82</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="15">
@@ -4826,25 +5344,25 @@
         <v>44136.0</v>
       </c>
       <c r="C15" t="s">
-        <v>257</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>258</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>1156</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="G15" t="s">
-        <v>246</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s">
         <v>60</v>
       </c>
       <c r="I15" t="s">
-        <v>842</v>
+        <v>82</v>
       </c>
       <c r="J15" t="s">
         <v>82</v>
@@ -4864,7 +5382,7 @@
         <v>104</v>
       </c>
       <c r="E16" t="s">
-        <v>1157</v>
+        <v>1268</v>
       </c>
       <c r="F16" t="s">
         <v>106</v>
@@ -4876,10 +5394,10 @@
         <v>60</v>
       </c>
       <c r="I16" t="s">
-        <v>840</v>
+        <v>82</v>
       </c>
       <c r="J16" t="s">
-        <v>82</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="17">
@@ -4893,10 +5411,10 @@
         <v>107</v>
       </c>
       <c r="D17" t="s">
-        <v>575</v>
+        <v>1269</v>
       </c>
       <c r="E17" t="s">
-        <v>1158</v>
+        <v>1270</v>
       </c>
       <c r="F17" t="s">
         <v>110</v>
@@ -4908,10 +5426,10 @@
         <v>111</v>
       </c>
       <c r="I17" t="s">
-        <v>856</v>
+        <v>82</v>
       </c>
       <c r="J17" t="s">
-        <v>82</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="18">
@@ -4925,10 +5443,10 @@
         <v>112</v>
       </c>
       <c r="D18" t="s">
-        <v>577</v>
+        <v>1271</v>
       </c>
       <c r="E18" t="s">
-        <v>1159</v>
+        <v>1272</v>
       </c>
       <c r="F18" t="s">
         <v>115</v>
@@ -4940,10 +5458,10 @@
         <v>111</v>
       </c>
       <c r="I18" t="s">
-        <v>856</v>
+        <v>82</v>
       </c>
       <c r="J18" t="s">
-        <v>82</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="19">
@@ -4960,7 +5478,7 @@
         <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>1160</v>
+        <v>1273</v>
       </c>
       <c r="F19" t="s">
         <v>119</v>
@@ -4972,10 +5490,10 @@
         <v>60</v>
       </c>
       <c r="I19" t="s">
-        <v>844</v>
+        <v>82</v>
       </c>
       <c r="J19" t="s">
-        <v>82</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="20">
@@ -4989,10 +5507,10 @@
         <v>120</v>
       </c>
       <c r="D20" t="s">
-        <v>121</v>
+        <v>1274</v>
       </c>
       <c r="E20" t="s">
-        <v>1161</v>
+        <v>1275</v>
       </c>
       <c r="F20" t="s">
         <v>123</v>
@@ -5004,10 +5522,10 @@
         <v>60</v>
       </c>
       <c r="I20" t="s">
-        <v>840</v>
+        <v>82</v>
       </c>
       <c r="J20" t="s">
-        <v>82</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="21">
@@ -5024,7 +5542,7 @@
         <v>125</v>
       </c>
       <c r="E21" t="s">
-        <v>1162</v>
+        <v>1277</v>
       </c>
       <c r="F21" t="s">
         <v>127</v>
@@ -5036,10 +5554,10 @@
         <v>128</v>
       </c>
       <c r="I21" t="s">
-        <v>844</v>
+        <v>82</v>
       </c>
       <c r="J21" t="s">
-        <v>82</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="22">
@@ -5056,7 +5574,7 @@
         <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>1163</v>
+        <v>1279</v>
       </c>
       <c r="F22" t="s">
         <v>132</v>
@@ -5068,10 +5586,10 @@
         <v>133</v>
       </c>
       <c r="I22" t="s">
-        <v>856</v>
+        <v>82</v>
       </c>
       <c r="J22" t="s">
-        <v>82</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="23">
@@ -5088,7 +5606,7 @@
         <v>135</v>
       </c>
       <c r="E23" t="s">
-        <v>1164</v>
+        <v>1280</v>
       </c>
       <c r="F23" t="s">
         <v>137</v>
@@ -5100,10 +5618,10 @@
         <v>138</v>
       </c>
       <c r="I23" t="s">
-        <v>844</v>
+        <v>82</v>
       </c>
       <c r="J23" t="s">
-        <v>82</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="24">
@@ -5120,7 +5638,7 @@
         <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>1165</v>
+        <v>1281</v>
       </c>
       <c r="F24" t="s">
         <v>141</v>
@@ -5132,10 +5650,10 @@
         <v>60</v>
       </c>
       <c r="I24" t="s">
-        <v>844</v>
+        <v>82</v>
       </c>
       <c r="J24" t="s">
-        <v>82</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="25">
@@ -5146,28 +5664,28 @@
         <v>44166.0</v>
       </c>
       <c r="C25" t="s">
-        <v>420</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>421</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>667</v>
+        <v>50</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="G25" t="s">
-        <v>399</v>
+        <v>52</v>
       </c>
       <c r="H25" t="s">
-        <v>423</v>
+        <v>60</v>
       </c>
       <c r="I25" t="s">
         <v>82</v>
       </c>
       <c r="J25" t="s">
-        <v>948</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26">
@@ -5181,10 +5699,10 @@
         <v>142</v>
       </c>
       <c r="D26" t="s">
-        <v>586</v>
+        <v>1282</v>
       </c>
       <c r="E26" t="s">
-        <v>1166</v>
+        <v>1283</v>
       </c>
       <c r="F26" t="s">
         <v>145</v>
@@ -5196,10 +5714,10 @@
         <v>146</v>
       </c>
       <c r="I26" t="s">
-        <v>856</v>
+        <v>82</v>
       </c>
       <c r="J26" t="s">
-        <v>82</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="27">
@@ -5213,10 +5731,10 @@
         <v>147</v>
       </c>
       <c r="D27" t="s">
-        <v>148</v>
+        <v>1284</v>
       </c>
       <c r="E27" t="s">
-        <v>1167</v>
+        <v>1285</v>
       </c>
       <c r="F27" t="s">
         <v>150</v>
@@ -5228,10 +5746,10 @@
         <v>151</v>
       </c>
       <c r="I27" t="s">
-        <v>840</v>
+        <v>82</v>
       </c>
       <c r="J27" t="s">
-        <v>82</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="28">
@@ -5245,10 +5763,10 @@
         <v>152</v>
       </c>
       <c r="D28" t="s">
-        <v>153</v>
+        <v>1287</v>
       </c>
       <c r="E28" t="s">
-        <v>1168</v>
+        <v>1288</v>
       </c>
       <c r="F28" t="s">
         <v>155</v>
@@ -5260,10 +5778,10 @@
         <v>156</v>
       </c>
       <c r="I28" t="s">
-        <v>840</v>
+        <v>82</v>
       </c>
       <c r="J28" t="s">
-        <v>82</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="29">
@@ -5277,10 +5795,10 @@
         <v>157</v>
       </c>
       <c r="D29" t="s">
-        <v>158</v>
+        <v>1289</v>
       </c>
       <c r="E29" t="s">
-        <v>1169</v>
+        <v>1290</v>
       </c>
       <c r="F29" t="s">
         <v>160</v>
@@ -5292,10 +5810,10 @@
         <v>161</v>
       </c>
       <c r="I29" t="s">
-        <v>844</v>
+        <v>82</v>
       </c>
       <c r="J29" t="s">
-        <v>82</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="30">
@@ -5306,28 +5824,28 @@
         <v>44040.0</v>
       </c>
       <c r="C30" t="s">
-        <v>428</v>
+        <v>46</v>
       </c>
       <c r="D30" t="s">
-        <v>429</v>
+        <v>47</v>
       </c>
       <c r="E30" t="s">
-        <v>672</v>
+        <v>50</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G30" t="s">
-        <v>399</v>
+        <v>52</v>
       </c>
       <c r="H30" t="s">
-        <v>431</v>
+        <v>60</v>
       </c>
       <c r="I30" t="s">
         <v>82</v>
       </c>
       <c r="J30" t="s">
-        <v>948</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31">
@@ -5341,10 +5859,10 @@
         <v>162</v>
       </c>
       <c r="D31" t="s">
-        <v>592</v>
+        <v>163</v>
       </c>
       <c r="E31" t="s">
-        <v>1170</v>
+        <v>1292</v>
       </c>
       <c r="F31" t="s">
         <v>165</v>
@@ -5356,10 +5874,10 @@
         <v>166</v>
       </c>
       <c r="I31" t="s">
-        <v>856</v>
+        <v>82</v>
       </c>
       <c r="J31" t="s">
-        <v>82</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="32">
@@ -5373,10 +5891,10 @@
         <v>167</v>
       </c>
       <c r="D32" t="s">
-        <v>168</v>
+        <v>1294</v>
       </c>
       <c r="E32" t="s">
-        <v>1171</v>
+        <v>1295</v>
       </c>
       <c r="F32" t="s">
         <v>170</v>
@@ -5388,10 +5906,10 @@
         <v>171</v>
       </c>
       <c r="I32" t="s">
-        <v>840</v>
+        <v>82</v>
       </c>
       <c r="J32" t="s">
-        <v>82</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="33">
@@ -5405,10 +5923,10 @@
         <v>172</v>
       </c>
       <c r="D33" t="s">
-        <v>173</v>
+        <v>1296</v>
       </c>
       <c r="E33" t="s">
-        <v>1172</v>
+        <v>1297</v>
       </c>
       <c r="F33" t="s">
         <v>175</v>
@@ -5420,10 +5938,10 @@
         <v>60</v>
       </c>
       <c r="I33" t="s">
-        <v>840</v>
+        <v>82</v>
       </c>
       <c r="J33" t="s">
-        <v>82</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="34">
@@ -5440,7 +5958,7 @@
         <v>177</v>
       </c>
       <c r="E34" t="s">
-        <v>1173</v>
+        <v>1299</v>
       </c>
       <c r="F34" t="s">
         <v>179</v>
@@ -5452,10 +5970,10 @@
         <v>180</v>
       </c>
       <c r="I34" t="s">
-        <v>844</v>
+        <v>82</v>
       </c>
       <c r="J34" t="s">
-        <v>82</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="35">
@@ -5469,10 +5987,10 @@
         <v>181</v>
       </c>
       <c r="D35" t="s">
-        <v>597</v>
+        <v>1301</v>
       </c>
       <c r="E35" t="s">
-        <v>1174</v>
+        <v>1302</v>
       </c>
       <c r="F35" t="s">
         <v>184</v>
@@ -5484,10 +6002,10 @@
         <v>185</v>
       </c>
       <c r="I35" t="s">
-        <v>856</v>
+        <v>82</v>
       </c>
       <c r="J35" t="s">
-        <v>82</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="36">
@@ -5501,10 +6019,10 @@
         <v>186</v>
       </c>
       <c r="D36" t="s">
-        <v>599</v>
+        <v>1303</v>
       </c>
       <c r="E36" t="s">
-        <v>1175</v>
+        <v>1304</v>
       </c>
       <c r="F36" t="s">
         <v>189</v>
@@ -5516,10 +6034,10 @@
         <v>190</v>
       </c>
       <c r="I36" t="s">
-        <v>856</v>
+        <v>82</v>
       </c>
       <c r="J36" t="s">
-        <v>82</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="37">
@@ -5536,7 +6054,7 @@
         <v>192</v>
       </c>
       <c r="E37" t="s">
-        <v>1176</v>
+        <v>1305</v>
       </c>
       <c r="F37" t="s">
         <v>194</v>
@@ -5548,10 +6066,10 @@
         <v>195</v>
       </c>
       <c r="I37" t="s">
-        <v>840</v>
+        <v>82</v>
       </c>
       <c r="J37" t="s">
-        <v>82</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="38">
@@ -5562,25 +6080,25 @@
         <v>44228.0</v>
       </c>
       <c r="C38" t="s">
-        <v>280</v>
+        <v>46</v>
       </c>
       <c r="D38" t="s">
-        <v>281</v>
+        <v>47</v>
       </c>
       <c r="E38" t="s">
-        <v>1177</v>
+        <v>50</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G38" t="s">
-        <v>246</v>
+        <v>52</v>
       </c>
       <c r="H38" t="s">
         <v>60</v>
       </c>
       <c r="I38" t="s">
-        <v>842</v>
+        <v>82</v>
       </c>
       <c r="J38" t="s">
         <v>82</v>
@@ -5600,7 +6118,7 @@
         <v>197</v>
       </c>
       <c r="E39" t="s">
-        <v>1178</v>
+        <v>1307</v>
       </c>
       <c r="F39" t="s">
         <v>199</v>
@@ -5612,10 +6130,10 @@
         <v>200</v>
       </c>
       <c r="I39" t="s">
-        <v>840</v>
+        <v>82</v>
       </c>
       <c r="J39" t="s">
-        <v>82</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="40">
@@ -5632,7 +6150,7 @@
         <v>202</v>
       </c>
       <c r="E40" t="s">
-        <v>1179</v>
+        <v>1309</v>
       </c>
       <c r="F40" t="s">
         <v>204</v>
@@ -5644,10 +6162,10 @@
         <v>60</v>
       </c>
       <c r="I40" t="s">
-        <v>844</v>
+        <v>82</v>
       </c>
       <c r="J40" t="s">
-        <v>82</v>
+        <v>1310</v>
       </c>
     </row>
   </sheetData>
